--- a/indirect_cc_predictor/manual_label.xlsx
+++ b/indirect_cc_predictor/manual_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braekwa1\Desktop\Machine Learning\indirect_cc_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E04722-E61F-490B-9310-7BD6DD646654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194ACF94-3A97-442C-8E12-FA00338FD0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
   <si>
     <t>Actual L3</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>3133620</t>
-  </si>
-  <si>
-    <t>727927</t>
-  </si>
-  <si>
-    <t>699885</t>
   </si>
   <si>
     <t>1336144</t>
@@ -502,7 +496,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D43"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,8 +550,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="1">
+        <v>727927</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -570,8 +564,8 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="1">
+        <v>699885</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -585,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -598,8 +592,8 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+      <c r="C7" s="1">
+        <v>1336144</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -613,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -627,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -641,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -655,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -669,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -683,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -697,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -711,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -725,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -739,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -753,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -767,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -781,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -795,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
@@ -809,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -823,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -837,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -851,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -865,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -879,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -893,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -907,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
@@ -921,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -929,13 +923,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -943,13 +937,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -957,13 +951,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -971,13 +965,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -985,13 +979,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -999,13 +993,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -1013,13 +1007,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1027,13 +1021,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -1041,13 +1035,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -1055,13 +1049,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
@@ -1069,13 +1063,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
@@ -1083,13 +1077,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
@@ -1097,13 +1091,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>

--- a/indirect_cc_predictor/manual_label.xlsx
+++ b/indirect_cc_predictor/manual_label.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braekwa1\Desktop\Machine Learning\indirect_cc_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194ACF94-3A97-442C-8E12-FA00338FD0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04880731-A930-4415-9926-9864FFE3D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Actual L3</t>
   </si>
@@ -42,87 +42,9 @@
     <t>Automation Mechanical</t>
   </si>
   <si>
-    <t>7204403</t>
-  </si>
-  <si>
     <t>Motion</t>
   </si>
   <si>
-    <t>3133620</t>
-  </si>
-  <si>
-    <t>1336144</t>
-  </si>
-  <si>
-    <t>699925</t>
-  </si>
-  <si>
-    <t>699800</t>
-  </si>
-  <si>
-    <t>733603</t>
-  </si>
-  <si>
-    <t>699866</t>
-  </si>
-  <si>
-    <t>699939</t>
-  </si>
-  <si>
-    <t>699834</t>
-  </si>
-  <si>
-    <t>699826</t>
-  </si>
-  <si>
-    <t>699983</t>
-  </si>
-  <si>
-    <t>699963</t>
-  </si>
-  <si>
-    <t>700219</t>
-  </si>
-  <si>
-    <t>3776396</t>
-  </si>
-  <si>
-    <t>706616</t>
-  </si>
-  <si>
-    <t>714767</t>
-  </si>
-  <si>
-    <t>699839</t>
-  </si>
-  <si>
-    <t>699947</t>
-  </si>
-  <si>
-    <t>714623</t>
-  </si>
-  <si>
-    <t>706630</t>
-  </si>
-  <si>
-    <t>700222</t>
-  </si>
-  <si>
-    <t>700188</t>
-  </si>
-  <si>
-    <t>700463</t>
-  </si>
-  <si>
-    <t>706784</t>
-  </si>
-  <si>
-    <t>706883</t>
-  </si>
-  <si>
-    <t>726083</t>
-  </si>
-  <si>
     <t>Fasteners/Hardware</t>
   </si>
   <si>
@@ -135,21 +57,6 @@
     <t>14917154</t>
   </si>
   <si>
-    <t>1557728</t>
-  </si>
-  <si>
-    <t>1558368</t>
-  </si>
-  <si>
-    <t>1557837</t>
-  </si>
-  <si>
-    <t>1558373</t>
-  </si>
-  <si>
-    <t>2659221</t>
-  </si>
-  <si>
     <t>14081318</t>
   </si>
   <si>
@@ -159,16 +66,115 @@
     <t>15486877</t>
   </si>
   <si>
-    <t>3214181</t>
-  </si>
-  <si>
-    <t>3516417</t>
-  </si>
-  <si>
     <t>Pneumatic</t>
   </si>
   <si>
-    <t>1601415</t>
+    <t>01557728</t>
+  </si>
+  <si>
+    <t>01557837</t>
+  </si>
+  <si>
+    <t>01558368</t>
+  </si>
+  <si>
+    <t>01558373</t>
+  </si>
+  <si>
+    <t>01601415</t>
+  </si>
+  <si>
+    <t>02659221</t>
+  </si>
+  <si>
+    <t>03214181</t>
+  </si>
+  <si>
+    <t>03516417</t>
+  </si>
+  <si>
+    <t>00699826</t>
+  </si>
+  <si>
+    <t>00699839</t>
+  </si>
+  <si>
+    <t>00699885</t>
+  </si>
+  <si>
+    <t>00699939</t>
+  </si>
+  <si>
+    <t>00699963</t>
+  </si>
+  <si>
+    <t>00706616</t>
+  </si>
+  <si>
+    <t>00706630</t>
+  </si>
+  <si>
+    <t>00706883</t>
+  </si>
+  <si>
+    <t>00714623</t>
+  </si>
+  <si>
+    <t>01336144</t>
+  </si>
+  <si>
+    <t>00699800</t>
+  </si>
+  <si>
+    <t>00699834</t>
+  </si>
+  <si>
+    <t>00699866</t>
+  </si>
+  <si>
+    <t>00699925</t>
+  </si>
+  <si>
+    <t>00699947</t>
+  </si>
+  <si>
+    <t>00699983</t>
+  </si>
+  <si>
+    <t>00700188</t>
+  </si>
+  <si>
+    <t>00700222</t>
+  </si>
+  <si>
+    <t>00700463</t>
+  </si>
+  <si>
+    <t>00733603</t>
+  </si>
+  <si>
+    <t>03133620</t>
+  </si>
+  <si>
+    <t>00714767</t>
+  </si>
+  <si>
+    <t>00700219</t>
+  </si>
+  <si>
+    <t>00726083</t>
+  </si>
+  <si>
+    <t>00727927</t>
+  </si>
+  <si>
+    <t>00706784</t>
+  </si>
+  <si>
+    <t>03776396</t>
+  </si>
+  <si>
+    <t>07204403</t>
   </si>
 </sst>
 </file>
@@ -492,16 +498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31658EBE-C8CC-4792-83EA-4FA95502DDB1}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,195 +515,195 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>727927</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>699885</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1336144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -705,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,13 +809,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,13 +823,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,13 +837,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,13 +851,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,13 +879,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,13 +893,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,13 +907,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,192 +921,192 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/indirect_cc_predictor/manual_label.xlsx
+++ b/indirect_cc_predictor/manual_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braekwa1\Desktop\Machine Learning\indirect_cc_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04880731-A930-4415-9926-9864FFE3D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4740D9F-37FA-4695-AD3A-714714177C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -216,9 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,13 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31658EBE-C8CC-4792-83EA-4FA95502DDB1}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,11 +522,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,11 +536,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -545,11 +550,11 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,11 +564,11 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,11 +578,11 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -587,11 +592,11 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -601,11 +606,11 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -615,11 +620,11 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -629,11 +634,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,11 +648,11 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,11 +662,11 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -671,11 +676,11 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,11 +690,11 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,11 +704,11 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,11 +718,11 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,11 +732,11 @@
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,11 +746,11 @@
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,11 +760,11 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,11 +774,11 @@
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,11 +788,11 @@
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,11 +802,11 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,11 +816,11 @@
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,11 +830,11 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,11 +844,11 @@
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,11 +858,11 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,11 +872,11 @@
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,11 +886,11 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,11 +900,11 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,11 +914,11 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,11 +928,11 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -937,11 +942,11 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -951,11 +956,11 @@
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,11 +970,11 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -979,11 +984,11 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,11 +998,11 @@
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1007,11 +1012,11 @@
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1021,11 +1026,11 @@
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,11 +1040,11 @@
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1049,11 +1054,11 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,11 +1068,11 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1077,11 +1082,11 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1091,11 +1096,11 @@
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1110,7 @@
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/indirect_cc_predictor/manual_label.xlsx
+++ b/indirect_cc_predictor/manual_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braekwa1\Desktop\Machine Learning\indirect_cc_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4740D9F-37FA-4695-AD3A-714714177C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC99E43-CD02-4AA1-823B-7FA4AD97EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="511">
   <si>
     <t>Actual L3</t>
   </si>
@@ -175,6 +175,1389 @@
   </si>
   <si>
     <t>07204403</t>
+  </si>
+  <si>
+    <t>00604890</t>
+  </si>
+  <si>
+    <t>06216210</t>
+  </si>
+  <si>
+    <t>13568994</t>
+  </si>
+  <si>
+    <t>06636571</t>
+  </si>
+  <si>
+    <t>12994445</t>
+  </si>
+  <si>
+    <t>01299060</t>
+  </si>
+  <si>
+    <t>01314856</t>
+  </si>
+  <si>
+    <t>01314685</t>
+  </si>
+  <si>
+    <t>14376779</t>
+  </si>
+  <si>
+    <t>01304821</t>
+  </si>
+  <si>
+    <t>01314811</t>
+  </si>
+  <si>
+    <t>00603384</t>
+  </si>
+  <si>
+    <t>01315533</t>
+  </si>
+  <si>
+    <t>05760816</t>
+  </si>
+  <si>
+    <t>00604204</t>
+  </si>
+  <si>
+    <t>00000218</t>
+  </si>
+  <si>
+    <t>11876175</t>
+  </si>
+  <si>
+    <t>01315310</t>
+  </si>
+  <si>
+    <t>01298372</t>
+  </si>
+  <si>
+    <t>06346575</t>
+  </si>
+  <si>
+    <t>00612098</t>
+  </si>
+  <si>
+    <t>00612302</t>
+  </si>
+  <si>
+    <t>00605522</t>
+  </si>
+  <si>
+    <t>07288245</t>
+  </si>
+  <si>
+    <t>01315200</t>
+  </si>
+  <si>
+    <t>01315100</t>
+  </si>
+  <si>
+    <t>03318570</t>
+  </si>
+  <si>
+    <t>02336048</t>
+  </si>
+  <si>
+    <t>14393486</t>
+  </si>
+  <si>
+    <t>01298254</t>
+  </si>
+  <si>
+    <t>00612169</t>
+  </si>
+  <si>
+    <t>02335841</t>
+  </si>
+  <si>
+    <t>12025451</t>
+  </si>
+  <si>
+    <t>01314874</t>
+  </si>
+  <si>
+    <t>02844840</t>
+  </si>
+  <si>
+    <t>12077962</t>
+  </si>
+  <si>
+    <t>01309049</t>
+  </si>
+  <si>
+    <t>01318684</t>
+  </si>
+  <si>
+    <t>01261374</t>
+  </si>
+  <si>
+    <t>00606297</t>
+  </si>
+  <si>
+    <t>10631401</t>
+  </si>
+  <si>
+    <t>03361549</t>
+  </si>
+  <si>
+    <t>01315520</t>
+  </si>
+  <si>
+    <t>06323223</t>
+  </si>
+  <si>
+    <t>07094105</t>
+  </si>
+  <si>
+    <t>01296319</t>
+  </si>
+  <si>
+    <t>01315674</t>
+  </si>
+  <si>
+    <t>02336343</t>
+  </si>
+  <si>
+    <t>05506746</t>
+  </si>
+  <si>
+    <t>06763554</t>
+  </si>
+  <si>
+    <t>01296846</t>
+  </si>
+  <si>
+    <t>06564762</t>
+  </si>
+  <si>
+    <t>00904744</t>
+  </si>
+  <si>
+    <t>00604903</t>
+  </si>
+  <si>
+    <t>13673578</t>
+  </si>
+  <si>
+    <t>13123507</t>
+  </si>
+  <si>
+    <t>00602444</t>
+  </si>
+  <si>
+    <t>01301459</t>
+  </si>
+  <si>
+    <t>02165663</t>
+  </si>
+  <si>
+    <t>12025450</t>
+  </si>
+  <si>
+    <t>01305240</t>
+  </si>
+  <si>
+    <t>12025487</t>
+  </si>
+  <si>
+    <t>06326434</t>
+  </si>
+  <si>
+    <t>06291527</t>
+  </si>
+  <si>
+    <t>06982955</t>
+  </si>
+  <si>
+    <t>06519511</t>
+  </si>
+  <si>
+    <t>02280124</t>
+  </si>
+  <si>
+    <t>01457635</t>
+  </si>
+  <si>
+    <t>07286376</t>
+  </si>
+  <si>
+    <t>12025476</t>
+  </si>
+  <si>
+    <t>07962384</t>
+  </si>
+  <si>
+    <t>15336314</t>
+  </si>
+  <si>
+    <t>00603988</t>
+  </si>
+  <si>
+    <t>01260345</t>
+  </si>
+  <si>
+    <t>13768657</t>
+  </si>
+  <si>
+    <t>08094947</t>
+  </si>
+  <si>
+    <t>06783977</t>
+  </si>
+  <si>
+    <t>00605331</t>
+  </si>
+  <si>
+    <t>07672185</t>
+  </si>
+  <si>
+    <t>01297174</t>
+  </si>
+  <si>
+    <t>06251127</t>
+  </si>
+  <si>
+    <t>01322283</t>
+  </si>
+  <si>
+    <t>01304144</t>
+  </si>
+  <si>
+    <t>01321582</t>
+  </si>
+  <si>
+    <t>06519515</t>
+  </si>
+  <si>
+    <t>06519507</t>
+  </si>
+  <si>
+    <t>05983303</t>
+  </si>
+  <si>
+    <t>08473115</t>
+  </si>
+  <si>
+    <t>01314919</t>
+  </si>
+  <si>
+    <t>01315475</t>
+  </si>
+  <si>
+    <t>16059369</t>
+  </si>
+  <si>
+    <t>06236811</t>
+  </si>
+  <si>
+    <t>14329542</t>
+  </si>
+  <si>
+    <t>07355942</t>
+  </si>
+  <si>
+    <t>00604276</t>
+  </si>
+  <si>
+    <t>04696407</t>
+  </si>
+  <si>
+    <t>00604221</t>
+  </si>
+  <si>
+    <t>06519462</t>
+  </si>
+  <si>
+    <t>07739830</t>
+  </si>
+  <si>
+    <t>01313493</t>
+  </si>
+  <si>
+    <t>01315405</t>
+  </si>
+  <si>
+    <t>01259808</t>
+  </si>
+  <si>
+    <t>00606666</t>
+  </si>
+  <si>
+    <t>12025474</t>
+  </si>
+  <si>
+    <t>00452884</t>
+  </si>
+  <si>
+    <t>14391417</t>
+  </si>
+  <si>
+    <t>05479109</t>
+  </si>
+  <si>
+    <t>01303564</t>
+  </si>
+  <si>
+    <t>00605980</t>
+  </si>
+  <si>
+    <t>00953471</t>
+  </si>
+  <si>
+    <t>08246533</t>
+  </si>
+  <si>
+    <t>01231737</t>
+  </si>
+  <si>
+    <t>06835864</t>
+  </si>
+  <si>
+    <t>02335784</t>
+  </si>
+  <si>
+    <t>13151739</t>
+  </si>
+  <si>
+    <t>08483797</t>
+  </si>
+  <si>
+    <t>12025453</t>
+  </si>
+  <si>
+    <t>01322546</t>
+  </si>
+  <si>
+    <t>01319640</t>
+  </si>
+  <si>
+    <t>09175799</t>
+  </si>
+  <si>
+    <t>09193078</t>
+  </si>
+  <si>
+    <t>02280099</t>
+  </si>
+  <si>
+    <t>09213374</t>
+  </si>
+  <si>
+    <t>02769260</t>
+  </si>
+  <si>
+    <t>07663487</t>
+  </si>
+  <si>
+    <t>01303135</t>
+  </si>
+  <si>
+    <t>02336035</t>
+  </si>
+  <si>
+    <t>12025485</t>
+  </si>
+  <si>
+    <t>01281747</t>
+  </si>
+  <si>
+    <t>02619797</t>
+  </si>
+  <si>
+    <t>04590967</t>
+  </si>
+  <si>
+    <t>01810734</t>
+  </si>
+  <si>
+    <t>03414413</t>
+  </si>
+  <si>
+    <t>00613821</t>
+  </si>
+  <si>
+    <t>04586245</t>
+  </si>
+  <si>
+    <t>04590814</t>
+  </si>
+  <si>
+    <t>02568379</t>
+  </si>
+  <si>
+    <t>02320944</t>
+  </si>
+  <si>
+    <t>04586267</t>
+  </si>
+  <si>
+    <t>02619826</t>
+  </si>
+  <si>
+    <t>04578910</t>
+  </si>
+  <si>
+    <t>00613807</t>
+  </si>
+  <si>
+    <t>08489610</t>
+  </si>
+  <si>
+    <t>04299289</t>
+  </si>
+  <si>
+    <t>01811272</t>
+  </si>
+  <si>
+    <t>01197776</t>
+  </si>
+  <si>
+    <t>04591228</t>
+  </si>
+  <si>
+    <t>01810935</t>
+  </si>
+  <si>
+    <t>04591368</t>
+  </si>
+  <si>
+    <t>04578106</t>
+  </si>
+  <si>
+    <t>01281855</t>
+  </si>
+  <si>
+    <t>08279491</t>
+  </si>
+  <si>
+    <t>03528441</t>
+  </si>
+  <si>
+    <t>02772268</t>
+  </si>
+  <si>
+    <t>02320933</t>
+  </si>
+  <si>
+    <t>01069509</t>
+  </si>
+  <si>
+    <t>04591593</t>
+  </si>
+  <si>
+    <t>18738111</t>
+  </si>
+  <si>
+    <t>14831091</t>
+  </si>
+  <si>
+    <t>02619944</t>
+  </si>
+  <si>
+    <t>14831089</t>
+  </si>
+  <si>
+    <t>08279490</t>
+  </si>
+  <si>
+    <t>05328222</t>
+  </si>
+  <si>
+    <t>02851734</t>
+  </si>
+  <si>
+    <t>00613805</t>
+  </si>
+  <si>
+    <t>01146342</t>
+  </si>
+  <si>
+    <t>14831085</t>
+  </si>
+  <si>
+    <t>00613829</t>
+  </si>
+  <si>
+    <t>01811309</t>
+  </si>
+  <si>
+    <t>14831087</t>
+  </si>
+  <si>
+    <t>03503358</t>
+  </si>
+  <si>
+    <t>03257899</t>
+  </si>
+  <si>
+    <t>02619888</t>
+  </si>
+  <si>
+    <t>02558051</t>
+  </si>
+  <si>
+    <t>06716827</t>
+  </si>
+  <si>
+    <t>15518356</t>
+  </si>
+  <si>
+    <t>14994227</t>
+  </si>
+  <si>
+    <t>14094957</t>
+  </si>
+  <si>
+    <t>08096362</t>
+  </si>
+  <si>
+    <t>11646694</t>
+  </si>
+  <si>
+    <t>04426311</t>
+  </si>
+  <si>
+    <t>13517826</t>
+  </si>
+  <si>
+    <t>15400875</t>
+  </si>
+  <si>
+    <t>02243806</t>
+  </si>
+  <si>
+    <t>02529492</t>
+  </si>
+  <si>
+    <t>02422830</t>
+  </si>
+  <si>
+    <t>07084202</t>
+  </si>
+  <si>
+    <t>12400941</t>
+  </si>
+  <si>
+    <t>15411433</t>
+  </si>
+  <si>
+    <t>00155263</t>
+  </si>
+  <si>
+    <t>07151477</t>
+  </si>
+  <si>
+    <t>07630778</t>
+  </si>
+  <si>
+    <t>00159226</t>
+  </si>
+  <si>
+    <t>00155559</t>
+  </si>
+  <si>
+    <t>07761166</t>
+  </si>
+  <si>
+    <t>02422955</t>
+  </si>
+  <si>
+    <t>00170007</t>
+  </si>
+  <si>
+    <t>00163431</t>
+  </si>
+  <si>
+    <t>00163786</t>
+  </si>
+  <si>
+    <t>07387440</t>
+  </si>
+  <si>
+    <t>00170135</t>
+  </si>
+  <si>
+    <t>00171737</t>
+  </si>
+  <si>
+    <t>14224644</t>
+  </si>
+  <si>
+    <t>00163468</t>
+  </si>
+  <si>
+    <t>00171888</t>
+  </si>
+  <si>
+    <t>00160778</t>
+  </si>
+  <si>
+    <t>00167941</t>
+  </si>
+  <si>
+    <t>00168348</t>
+  </si>
+  <si>
+    <t>00170690</t>
+  </si>
+  <si>
+    <t>00167428</t>
+  </si>
+  <si>
+    <t>00171334</t>
+  </si>
+  <si>
+    <t>00175492</t>
+  </si>
+  <si>
+    <t>00175229</t>
+  </si>
+  <si>
+    <t>05656041</t>
+  </si>
+  <si>
+    <t>00174817</t>
+  </si>
+  <si>
+    <t>00170856</t>
+  </si>
+  <si>
+    <t>00171179</t>
+  </si>
+  <si>
+    <t>00169962</t>
+  </si>
+  <si>
+    <t>00172212</t>
+  </si>
+  <si>
+    <t>00168366</t>
+  </si>
+  <si>
+    <t>00168093</t>
+  </si>
+  <si>
+    <t>00170687</t>
+  </si>
+  <si>
+    <t>00168339</t>
+  </si>
+  <si>
+    <t>00168415</t>
+  </si>
+  <si>
+    <t>00175231</t>
+  </si>
+  <si>
+    <t>00169135</t>
+  </si>
+  <si>
+    <t>00171846</t>
+  </si>
+  <si>
+    <t>00169675</t>
+  </si>
+  <si>
+    <t>00159394</t>
+  </si>
+  <si>
+    <t>00170777</t>
+  </si>
+  <si>
+    <t>00170925</t>
+  </si>
+  <si>
+    <t>00159385</t>
+  </si>
+  <si>
+    <t>00172371</t>
+  </si>
+  <si>
+    <t>00174721</t>
+  </si>
+  <si>
+    <t>00167984</t>
+  </si>
+  <si>
+    <t>00175524</t>
+  </si>
+  <si>
+    <t>00168266</t>
+  </si>
+  <si>
+    <t>00170960</t>
+  </si>
+  <si>
+    <t>00168668</t>
+  </si>
+  <si>
+    <t>00167231</t>
+  </si>
+  <si>
+    <t>00163404</t>
+  </si>
+  <si>
+    <t>00171879</t>
+  </si>
+  <si>
+    <t>00168180</t>
+  </si>
+  <si>
+    <t>00169666</t>
+  </si>
+  <si>
+    <t>01672107</t>
+  </si>
+  <si>
+    <t>00170052</t>
+  </si>
+  <si>
+    <t>00165346</t>
+  </si>
+  <si>
+    <t>00171206</t>
+  </si>
+  <si>
+    <t>15414879</t>
+  </si>
+  <si>
+    <t>00160028</t>
+  </si>
+  <si>
+    <t>00169727</t>
+  </si>
+  <si>
+    <t>00171303</t>
+  </si>
+  <si>
+    <t>00163539</t>
+  </si>
+  <si>
+    <t>00171276</t>
+  </si>
+  <si>
+    <t>00169876</t>
+  </si>
+  <si>
+    <t>00167212</t>
+  </si>
+  <si>
+    <t>00185244</t>
+  </si>
+  <si>
+    <t>00172909</t>
+  </si>
+  <si>
+    <t>00161559</t>
+  </si>
+  <si>
+    <t>00169574</t>
+  </si>
+  <si>
+    <t>00170219</t>
+  </si>
+  <si>
+    <t>19276709</t>
+  </si>
+  <si>
+    <t>00167697</t>
+  </si>
+  <si>
+    <t>00171891</t>
+  </si>
+  <si>
+    <t>00167610</t>
+  </si>
+  <si>
+    <t>02144983</t>
+  </si>
+  <si>
+    <t>00152180</t>
+  </si>
+  <si>
+    <t>00204200</t>
+  </si>
+  <si>
+    <t>02150937</t>
+  </si>
+  <si>
+    <t>02144987</t>
+  </si>
+  <si>
+    <t>02302225</t>
+  </si>
+  <si>
+    <t>13331396</t>
+  </si>
+  <si>
+    <t>02061373</t>
+  </si>
+  <si>
+    <t>08570083</t>
+  </si>
+  <si>
+    <t>04648831</t>
+  </si>
+  <si>
+    <t>11391885</t>
+  </si>
+  <si>
+    <t>03160240</t>
+  </si>
+  <si>
+    <t>07998839</t>
+  </si>
+  <si>
+    <t>00204609</t>
+  </si>
+  <si>
+    <t>00161531</t>
+  </si>
+  <si>
+    <t>07730007</t>
+  </si>
+  <si>
+    <t>11328142</t>
+  </si>
+  <si>
+    <t>00188647</t>
+  </si>
+  <si>
+    <t>00189006</t>
+  </si>
+  <si>
+    <t>00173796</t>
+  </si>
+  <si>
+    <t>02467281</t>
+  </si>
+  <si>
+    <t>00191251</t>
+  </si>
+  <si>
+    <t>00178991</t>
+  </si>
+  <si>
+    <t>07730005</t>
+  </si>
+  <si>
+    <t>03690362</t>
+  </si>
+  <si>
+    <t>00172917</t>
+  </si>
+  <si>
+    <t>00175403</t>
+  </si>
+  <si>
+    <t>11328145</t>
+  </si>
+  <si>
+    <t>00199479</t>
+  </si>
+  <si>
+    <t>00188727</t>
+  </si>
+  <si>
+    <t>02144988</t>
+  </si>
+  <si>
+    <t>05576649</t>
+  </si>
+  <si>
+    <t>00188556</t>
+  </si>
+  <si>
+    <t>00188568</t>
+  </si>
+  <si>
+    <t>15348942</t>
+  </si>
+  <si>
+    <t>00193520</t>
+  </si>
+  <si>
+    <t>06657446</t>
+  </si>
+  <si>
+    <t>06114882</t>
+  </si>
+  <si>
+    <t>08939509</t>
+  </si>
+  <si>
+    <t>08245705</t>
+  </si>
+  <si>
+    <t>16061304</t>
+  </si>
+  <si>
+    <t>02306751</t>
+  </si>
+  <si>
+    <t>00198584</t>
+  </si>
+  <si>
+    <t>00173798</t>
+  </si>
+  <si>
+    <t>00193897</t>
+  </si>
+  <si>
+    <t>00165386</t>
+  </si>
+  <si>
+    <t>00188927</t>
+  </si>
+  <si>
+    <t>02852481</t>
+  </si>
+  <si>
+    <t>06657450</t>
+  </si>
+  <si>
+    <t>00162660</t>
+  </si>
+  <si>
+    <t>00172915</t>
+  </si>
+  <si>
+    <t>02145010</t>
+  </si>
+  <si>
+    <t>00165366</t>
+  </si>
+  <si>
+    <t>00192277</t>
+  </si>
+  <si>
+    <t>07549022</t>
+  </si>
+  <si>
+    <t>11391943</t>
+  </si>
+  <si>
+    <t>14888055</t>
+  </si>
+  <si>
+    <t>00182095</t>
+  </si>
+  <si>
+    <t>03513485</t>
+  </si>
+  <si>
+    <t>00192793</t>
+  </si>
+  <si>
+    <t>00177919</t>
+  </si>
+  <si>
+    <t>07955502</t>
+  </si>
+  <si>
+    <t>00178130</t>
+  </si>
+  <si>
+    <t>00183245</t>
+  </si>
+  <si>
+    <t>02145006</t>
+  </si>
+  <si>
+    <t>00188830</t>
+  </si>
+  <si>
+    <t>00175692</t>
+  </si>
+  <si>
+    <t>08731464</t>
+  </si>
+  <si>
+    <t>00172499</t>
+  </si>
+  <si>
+    <t>00183383</t>
+  </si>
+  <si>
+    <t>06224340</t>
+  </si>
+  <si>
+    <t>00185172</t>
+  </si>
+  <si>
+    <t>00187849</t>
+  </si>
+  <si>
+    <t>08285938</t>
+  </si>
+  <si>
+    <t>02301513</t>
+  </si>
+  <si>
+    <t>00175689</t>
+  </si>
+  <si>
+    <t>00188645</t>
+  </si>
+  <si>
+    <t>07007439</t>
+  </si>
+  <si>
+    <t>02168448</t>
+  </si>
+  <si>
+    <t>07438975</t>
+  </si>
+  <si>
+    <t>04498062</t>
+  </si>
+  <si>
+    <t>00792456</t>
+  </si>
+  <si>
+    <t>02392257</t>
+  </si>
+  <si>
+    <t>14549830</t>
+  </si>
+  <si>
+    <t>02392259</t>
+  </si>
+  <si>
+    <t>00191326</t>
+  </si>
+  <si>
+    <t>00198270</t>
+  </si>
+  <si>
+    <t>00152030</t>
+  </si>
+  <si>
+    <t>02167576</t>
+  </si>
+  <si>
+    <t>00152508</t>
+  </si>
+  <si>
+    <t>02280363</t>
+  </si>
+  <si>
+    <t>00818205</t>
+  </si>
+  <si>
+    <t>02862249</t>
+  </si>
+  <si>
+    <t>00173780</t>
+  </si>
+  <si>
+    <t>00152266</t>
+  </si>
+  <si>
+    <t>02392258</t>
+  </si>
+  <si>
+    <t>00155390</t>
+  </si>
+  <si>
+    <t>08915969</t>
+  </si>
+  <si>
+    <t>00189887</t>
+  </si>
+  <si>
+    <t>13707280</t>
+  </si>
+  <si>
+    <t>02151309</t>
+  </si>
+  <si>
+    <t>00197243</t>
+  </si>
+  <si>
+    <t>00151804</t>
+  </si>
+  <si>
+    <t>00158897</t>
+  </si>
+  <si>
+    <t>01365855</t>
+  </si>
+  <si>
+    <t>00151685</t>
+  </si>
+  <si>
+    <t>00151680</t>
+  </si>
+  <si>
+    <t>02150767</t>
+  </si>
+  <si>
+    <t>00152466</t>
+  </si>
+  <si>
+    <t>00151183</t>
+  </si>
+  <si>
+    <t>00151086</t>
+  </si>
+  <si>
+    <t>00793141</t>
+  </si>
+  <si>
+    <t>00153429</t>
+  </si>
+  <si>
+    <t>00152138</t>
+  </si>
+  <si>
+    <t>00172083</t>
+  </si>
+  <si>
+    <t>00189889</t>
+  </si>
+  <si>
+    <t>00197249</t>
+  </si>
+  <si>
+    <t>02151101</t>
+  </si>
+  <si>
+    <t>00155134</t>
+  </si>
+  <si>
+    <t>00151357</t>
+  </si>
+  <si>
+    <t>00151362</t>
+  </si>
+  <si>
+    <t>02299673</t>
+  </si>
+  <si>
+    <t>00151188</t>
+  </si>
+  <si>
+    <t>02293727</t>
+  </si>
+  <si>
+    <t>00154636</t>
+  </si>
+  <si>
+    <t>00151770</t>
+  </si>
+  <si>
+    <t>02392255</t>
+  </si>
+  <si>
+    <t>00154787</t>
+  </si>
+  <si>
+    <t>02144982</t>
+  </si>
+  <si>
+    <t>00195147</t>
+  </si>
+  <si>
+    <t>00151467</t>
+  </si>
+  <si>
+    <t>00151472</t>
+  </si>
+  <si>
+    <t>00172102</t>
+  </si>
+  <si>
+    <t>00212299</t>
+  </si>
+  <si>
+    <t>01258818</t>
+  </si>
+  <si>
+    <t>07135881</t>
+  </si>
+  <si>
+    <t>00189835</t>
+  </si>
+  <si>
+    <t>07544971</t>
+  </si>
+  <si>
+    <t>00152036</t>
+  </si>
+  <si>
+    <t>00194701</t>
+  </si>
+  <si>
+    <t>06657394</t>
+  </si>
+  <si>
+    <t>00154973</t>
+  </si>
+  <si>
+    <t>00154658</t>
+  </si>
+  <si>
+    <t>06658166</t>
+  </si>
+  <si>
+    <t>00154972</t>
+  </si>
+  <si>
+    <t>00212277</t>
+  </si>
+  <si>
+    <t>02731393</t>
+  </si>
+  <si>
+    <t>12568828</t>
+  </si>
+  <si>
+    <t>00212162</t>
+  </si>
+  <si>
+    <t>00151227</t>
+  </si>
+  <si>
+    <t>02151326</t>
+  </si>
+  <si>
+    <t>00212256</t>
+  </si>
+  <si>
+    <t>00193568</t>
+  </si>
+  <si>
+    <t>00212121</t>
+  </si>
+  <si>
+    <t>04726411</t>
+  </si>
+  <si>
+    <t>02099227</t>
+  </si>
+  <si>
+    <t>00205557</t>
+  </si>
+  <si>
+    <t>00212189</t>
+  </si>
+  <si>
+    <t>00152421</t>
+  </si>
+  <si>
+    <t>06657152</t>
+  </si>
+  <si>
+    <t>05639569</t>
+  </si>
+  <si>
+    <t>14403460</t>
+  </si>
+  <si>
+    <t>00151815</t>
+  </si>
+  <si>
+    <t>00152849</t>
+  </si>
+  <si>
+    <t>02150936</t>
+  </si>
+  <si>
+    <t>00152271</t>
+  </si>
+  <si>
+    <t>02165290</t>
+  </si>
+  <si>
+    <t>00152594</t>
+  </si>
+  <si>
+    <t>00199918</t>
+  </si>
+  <si>
+    <t>00152293</t>
+  </si>
+  <si>
+    <t>06657250</t>
+  </si>
+  <si>
+    <t>12025319</t>
+  </si>
+  <si>
+    <t>02741249</t>
+  </si>
+  <si>
+    <t>00152567</t>
+  </si>
+  <si>
+    <t>00186827</t>
+  </si>
+  <si>
+    <t>00151380</t>
+  </si>
+  <si>
+    <t>00151385</t>
+  </si>
+  <si>
+    <t>00180187</t>
+  </si>
+  <si>
+    <t>00152616</t>
+  </si>
+  <si>
+    <t>00152871</t>
+  </si>
+  <si>
+    <t>00151926</t>
+  </si>
+  <si>
+    <t>00151703</t>
+  </si>
+  <si>
+    <t>00151708</t>
+  </si>
+  <si>
+    <t>00152346</t>
+  </si>
+  <si>
+    <t>02151096</t>
+  </si>
+  <si>
+    <t>00151205</t>
+  </si>
+  <si>
+    <t>00151564</t>
+  </si>
+  <si>
+    <t>06790055</t>
+  </si>
+  <si>
+    <t>00151949</t>
+  </si>
+  <si>
+    <t>02151306</t>
+  </si>
+  <si>
+    <t>00151210</t>
+  </si>
+  <si>
+    <t>05903590</t>
+  </si>
+  <si>
+    <t>06820113</t>
+  </si>
+  <si>
+    <t>00211943</t>
+  </si>
+  <si>
+    <t>01516342</t>
+  </si>
+  <si>
+    <t>08031842</t>
   </si>
 </sst>
 </file>
@@ -501,18 +1884,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31658EBE-C8CC-4792-83EA-4FA95502DDB1}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -554,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,38 +1962,38 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,10 +2004,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,10 +2032,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -663,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,12 +2060,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -691,24 +2074,24 @@
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,10 +2116,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,10 +2158,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,10 +2186,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,10 +2242,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,10 +2256,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,10 +2284,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -929,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -943,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -971,10 +2354,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -985,10 +2368,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -999,10 +2382,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1027,10 +2410,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1041,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1083,36 +2466,5085 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B371" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B402" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B403" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B404" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B405" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B406" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B407" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B408" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B409" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B413" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B415" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B416" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B417" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B418" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B419" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B430" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B440" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B443" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B445" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B446" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B449" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B450" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B451" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B454" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B456" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B457" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B458" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B459" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B461" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B466" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B467" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B469" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B470" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B472" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B475" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B478" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B479" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B480" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B482" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B484" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B485" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B486" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B487" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B488" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B490" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B494" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B497" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B500" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B502" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D503"/>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D504"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
